--- a/TestCaseOrangeHRM.xlsx
+++ b/TestCaseOrangeHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOOTCAMP\QA\FINAL PROJECT\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B46C58-957A-442F-B691-77B8932C0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B322C5-0139-471A-BF5D-DC71557A3A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_MENU_ADMIN" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="140">
   <si>
     <t>Function Name</t>
   </si>
@@ -321,12 +321,6 @@
     <t>TC015</t>
   </si>
   <si>
-    <t>TC016</t>
-  </si>
-  <si>
-    <t>TC017</t>
-  </si>
-  <si>
     <t>TC018</t>
   </si>
   <si>
@@ -545,6 +539,27 @@
   </si>
   <si>
     <t>Buzz</t>
+  </si>
+  <si>
+    <t>Add  Type Leave</t>
+  </si>
+  <si>
+    <t>1). Akses URL "https://opensource-demo.orangehrmlive.com/ "
+2). Login sesuai Username &amp; password hint.
+3). Click menu Leave
+4). Pilih Tab dropdown Configure
+5). Pilih Leave Types
+6). Click Add
+7). Isi form Add Leave Type</t>
+  </si>
+  <si>
+    <t>1). Akses URL "https://opensource-demo.orangehrmlive.com/ "
+2). Login sesuai Username &amp; password hint.
+3). Click menu Leave
+4). Pilih Tab dropdown Configure
+5). Pilih Leave Types
+6). Pada tabel click icon "delete" salah satu data
+7). Muncul Pop up konfirmasi pilih "Yes, Delete"</t>
   </si>
 </sst>
 </file>
@@ -1076,6 +1091,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,73 +1193,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1203,27 +1239,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1543,7 +1558,7 @@
   </sheetPr>
   <dimension ref="A1:AC984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K13" sqref="K13:M13"/>
     </sheetView>
   </sheetViews>
@@ -1627,10 +1642,10 @@
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="50"/>
+      <c r="B3" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="74"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1678,10 +1693,10 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1689,10 +1704,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="67">
         <v>31</v>
       </c>
       <c r="M4" s="10">
@@ -1729,10 +1744,10 @@
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1740,8 +1755,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="11">
         <v>0</v>
       </c>
@@ -1776,10 +1791,10 @@
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="79">
         <v>44807</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1787,10 +1802,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="71">
         <v>31</v>
       </c>
       <c r="M6" s="12">
@@ -1827,10 +1842,10 @@
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1838,8 +1853,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="32">
         <v>0</v>
       </c>
@@ -1945,20 +1960,20 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="72" t="s">
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="74"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1968,64 +1983,64 @@
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="61" t="s">
+      <c r="K11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="61" t="s">
+      <c r="L11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="61" t="s">
+      <c r="M11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="61" t="s">
+      <c r="N11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="61" t="s">
+      <c r="O11" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="61" t="s">
+      <c r="P11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="61" t="s">
+      <c r="Q11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="59" t="s">
+      <c r="R11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="59" t="s">
+      <c r="S11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="59" t="s">
+      <c r="T11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="59" t="s">
+      <c r="U11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="59" t="s">
+      <c r="V11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="W11" s="2"/>
@@ -2049,24 +2064,24 @@
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -2076,16 +2091,16 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="23" t="s">
@@ -2133,10 +2148,10 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="23" t="s">
         <v>40</v>
       </c>
@@ -2182,10 +2197,10 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="23" t="s">
         <v>40</v>
       </c>
@@ -2231,10 +2246,10 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="23" t="s">
         <v>40</v>
       </c>
@@ -2280,12 +2295,12 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="79" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="71"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="24" t="s">
         <v>35</v>
       </c>
@@ -2296,13 +2311,13 @@
         <v>58</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>46</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>70</v>
@@ -2331,10 +2346,10 @@
       <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:29" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="71"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="24" t="s">
         <v>35</v>
       </c>
@@ -2348,16 +2363,16 @@
         <v>71</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M18" s="26" t="s">
         <v>36</v>
@@ -31711,6 +31726,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="R10:V10"/>
@@ -31727,26 +31762,6 @@
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="M13:M18">
@@ -31786,10 +31801,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="50"/>
+      <c r="B1" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -31830,10 +31845,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -31841,10 +31856,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="65">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -31874,10 +31889,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -31885,8 +31900,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -31914,10 +31929,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -31925,10 +31940,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -31954,14 +31969,14 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -31969,8 +31984,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -32055,80 +32070,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="72" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="74"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="61" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -32145,31 +32160,31 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>55</v>
@@ -32187,19 +32202,19 @@
         <v>66</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>36</v>
@@ -32216,16 +32231,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
@@ -32237,15 +32251,16 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <conditionalFormatting sqref="M11">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PASS">
@@ -32263,7 +32278,7 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:A18"/>
     </sheetView>
   </sheetViews>
@@ -32332,10 +32347,10 @@
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="85"/>
+      <c r="B3" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="92"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -32376,10 +32391,10 @@
       <c r="A4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="87"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -32387,10 +32402,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="67">
         <v>31</v>
       </c>
       <c r="M4" s="10">
@@ -32420,10 +32435,10 @@
       <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -32431,8 +32446,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="11">
         <v>0</v>
       </c>
@@ -32460,10 +32475,10 @@
       <c r="A6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="89">
         <v>44807</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -32471,10 +32486,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="71">
         <v>31</v>
       </c>
       <c r="M6" s="12">
@@ -32504,10 +32519,10 @@
       <c r="A7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -32515,8 +32530,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="32">
         <v>0</v>
       </c>
@@ -32601,80 +32616,80 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="72" t="s">
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="74"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="61" t="s">
+      <c r="K11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="61" t="s">
+      <c r="L11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="61" t="s">
+      <c r="M11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="61" t="s">
+      <c r="N11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="61" t="s">
+      <c r="O11" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="61" t="s">
+      <c r="P11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="61" t="s">
+      <c r="Q11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="59" t="s">
+      <c r="R11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="59" t="s">
+      <c r="S11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="59" t="s">
+      <c r="T11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="59" t="s">
+      <c r="U11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="59" t="s">
+      <c r="V11" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -32691,36 +32706,36 @@
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
     </row>
     <row r="13" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -32761,10 +32776,10 @@
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="42" t="s">
         <v>40</v>
       </c>
@@ -32803,10 +32818,10 @@
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="42" t="s">
         <v>40</v>
       </c>
@@ -32845,10 +32860,10 @@
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="42" t="s">
         <v>40</v>
       </c>
@@ -32887,8 +32902,8 @@
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22" ht="132" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="25" t="s">
         <v>56</v>
       </c>
@@ -32931,8 +32946,8 @@
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="95"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="47" t="s">
         <v>82</v>
       </c>
@@ -32979,14 +32994,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="R10:V10"/>
@@ -33003,16 +33019,15 @@
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="L11:L12"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="M13:M18">
@@ -33026,10 +33041,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B8E44A-8B61-4E05-BDB7-9E1B7141C0F0}">
-  <dimension ref="A1:V18"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33110,10 +33128,10 @@
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="50"/>
+      <c r="B3" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="74"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -33154,10 +33172,10 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -33165,10 +33183,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="67">
         <v>31</v>
       </c>
       <c r="M4" s="10">
@@ -33198,10 +33216,10 @@
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -33209,8 +33227,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="11">
         <v>0</v>
       </c>
@@ -33238,10 +33256,10 @@
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="79">
         <v>44807</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -33249,10 +33267,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="71">
         <v>31</v>
       </c>
       <c r="M6" s="12">
@@ -33282,10 +33300,10 @@
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -33293,8 +33311,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="32">
         <v>0</v>
       </c>
@@ -33379,80 +33397,80 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="72" t="s">
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="74"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="61" t="s">
+      <c r="K11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="61" t="s">
+      <c r="L11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="61" t="s">
+      <c r="M11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="61" t="s">
+      <c r="N11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="61" t="s">
+      <c r="O11" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="61" t="s">
+      <c r="P11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="61" t="s">
+      <c r="Q11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="59" t="s">
+      <c r="R11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="59" t="s">
+      <c r="S11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="59" t="s">
+      <c r="T11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="59" t="s">
+      <c r="U11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="59" t="s">
+      <c r="V11" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -33469,40 +33487,38 @@
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
     </row>
     <row r="13" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>40</v>
+      <c r="B13" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="46" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>39</v>
@@ -33510,20 +33526,20 @@
       <c r="G13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="44" t="s">
-        <v>48</v>
+      <c r="H13" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>54</v>
+        <v>138</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>36</v>
@@ -33538,229 +33554,59 @@
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
     </row>
-    <row r="14" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="42" t="s">
-        <v>40</v>
+    <row r="14" spans="1:22" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="46" t="s">
+        <v>35</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="44" t="s">
-        <v>54</v>
+        <v>139</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-    </row>
-    <row r="15" spans="1:22" ht="132" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-    </row>
-    <row r="16" spans="1:22" ht="132" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-    </row>
-    <row r="17" spans="1:22" ht="132" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-    </row>
-    <row r="18" spans="1:22" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="32">
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="A11:C11"/>
@@ -33776,19 +33622,19 @@
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="L11:L12"/>
     <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="M13:M18">
+  <conditionalFormatting sqref="M13:M14">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M13))))</formula>
     </cfRule>
@@ -33824,10 +33670,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="50"/>
+      <c r="B1" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -33868,10 +33714,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -33879,10 +33725,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="65">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -33912,10 +33758,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -33923,8 +33769,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -33952,10 +33798,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -33963,10 +33809,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -33996,10 +33842,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -34007,8 +33853,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -34093,80 +33939,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="72" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="74"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="61" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -34183,36 +34029,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="90" t="s">
+      <c r="B11" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="97" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -34225,13 +34071,13 @@
         <v>66</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>70</v>
@@ -34253,10 +34099,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="42" t="s">
         <v>40</v>
       </c>
@@ -34267,19 +34113,19 @@
         <v>83</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>36</v>
@@ -34296,21 +34142,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -34321,15 +34161,21 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:M12">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="PASS">
@@ -34366,10 +34212,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="50"/>
+      <c r="B1" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -34410,10 +34256,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -34421,10 +34267,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="65">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -34454,10 +34300,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -34465,8 +34311,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -34494,10 +34340,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -34505,10 +34351,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -34538,10 +34384,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -34549,8 +34395,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -34635,80 +34481,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="72" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="74"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="61" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -34725,36 +34571,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="80" t="s">
+      <c r="B11" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -34767,13 +34613,13 @@
         <v>66</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>47</v>
@@ -34795,10 +34641,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="42" t="s">
         <v>40</v>
       </c>
@@ -34809,13 +34655,13 @@
         <v>83</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>78</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K12" s="44" t="s">
         <v>53</v>
@@ -34823,8 +34669,8 @@
       <c r="L12" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="92" t="s">
-        <v>110</v>
+      <c r="M12" s="49" t="s">
+        <v>108</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
@@ -34838,21 +34684,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -34863,15 +34703,21 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:M12">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PASS">
@@ -34908,10 +34754,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="50"/>
+      <c r="B1" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -34948,14 +34794,14 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -34963,10 +34809,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="65">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -34996,10 +34842,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -35007,8 +34853,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -35032,14 +34878,14 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -35047,10 +34893,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -35076,14 +34922,14 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -35091,8 +34937,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -35177,80 +35023,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="72" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="74"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="61" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -35267,36 +35113,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="80" t="s">
+      <c r="B11" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -35309,19 +35155,19 @@
         <v>66</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>116</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>36</v>
@@ -35337,10 +35183,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="46" t="s">
         <v>35</v>
       </c>
@@ -35351,19 +35197,19 @@
         <v>67</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L12" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>36</v>
@@ -35380,21 +35226,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -35405,15 +35245,21 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:M12">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="PASS">
@@ -35449,10 +35295,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="50"/>
+      <c r="B1" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -35493,10 +35339,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -35504,10 +35350,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="65">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -35537,10 +35383,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -35548,8 +35394,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -35577,10 +35423,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -35588,10 +35434,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -35617,14 +35463,14 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -35632,8 +35478,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -35718,80 +35564,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="72" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="74"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="61" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -35808,36 +35654,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="80" t="s">
+      <c r="B11" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -35856,7 +35702,7 @@
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>54</v>
@@ -35878,10 +35724,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="42" t="s">
         <v>40</v>
       </c>
@@ -35892,19 +35738,19 @@
         <v>67</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L12" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>36</v>
@@ -35921,11 +35767,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
@@ -35936,25 +35796,11 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
   </mergeCells>
   <conditionalFormatting sqref="M12">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="PASS">
@@ -35996,10 +35842,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="50"/>
+      <c r="B1" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -36036,14 +35882,14 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -36051,10 +35897,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="65">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -36084,10 +35930,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -36095,8 +35941,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -36120,14 +35966,14 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -36135,10 +35981,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -36164,14 +36010,14 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -36179,8 +36025,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -36265,80 +36111,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="72" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="74"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="61" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -36355,31 +36201,31 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>55</v>
@@ -36397,19 +36243,19 @@
         <v>66</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>36</v>
@@ -36426,16 +36272,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
@@ -36447,15 +36292,16 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <conditionalFormatting sqref="M11">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="PASS">
@@ -36491,10 +36337,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="50"/>
+      <c r="B1" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -36535,10 +36381,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -36546,10 +36392,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="65">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -36579,10 +36425,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -36590,8 +36436,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -36619,10 +36465,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -36630,10 +36476,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -36663,10 +36509,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -36674,8 +36520,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -36760,80 +36606,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="75" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="72" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="74"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="61" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -36850,36 +36696,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="80" t="s">
+      <c r="B11" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -36898,7 +36744,7 @@
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>54</v>
@@ -36920,10 +36766,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="42" t="s">
         <v>40</v>
       </c>
@@ -36934,19 +36780,19 @@
         <v>67</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L12" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>36</v>
@@ -36963,11 +36809,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
@@ -36978,25 +36838,11 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
   </mergeCells>
   <conditionalFormatting sqref="M12">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASS">

--- a/TestCaseOrangeHRM.xlsx
+++ b/TestCaseOrangeHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOOTCAMP\QA\FINAL PROJECT\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B322C5-0139-471A-BF5D-DC71557A3A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF29C22-FA7D-4853-A2DA-C50EE832E9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_MENU_ADMIN" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="141">
   <si>
     <t>Function Name</t>
   </si>
@@ -486,9 +486,6 @@
     <t>Berhasil View Tracking Log</t>
   </si>
   <si>
-    <t>Memu Dashboard</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -560,6 +557,12 @@
 5). Pilih Leave Types
 6). Pada tabel click icon "delete" salah satu data
 7). Muncul Pop up konfirmasi pilih "Yes, Delete"</t>
+  </si>
+  <si>
+    <t>Dashboard Menu</t>
+  </si>
+  <si>
+    <t>Performance Menu</t>
   </si>
 </sst>
 </file>
@@ -1094,75 +1097,6 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1193,22 +1127,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1234,6 +1219,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1642,10 +1645,10 @@
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1693,10 +1696,10 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1704,10 +1707,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="66">
         <v>31</v>
       </c>
       <c r="M4" s="10">
@@ -1744,10 +1747,10 @@
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1755,8 +1758,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="68"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="11">
         <v>0</v>
       </c>
@@ -1791,10 +1794,10 @@
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="56">
         <v>44807</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1802,10 +1805,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="70">
         <v>31</v>
       </c>
       <c r="M6" s="12">
@@ -1842,10 +1845,10 @@
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1853,8 +1856,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="72"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="32">
         <v>0</v>
       </c>
@@ -1960,20 +1963,20 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="51" t="s">
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="53"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="75"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1983,64 +1986,64 @@
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="M11" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="55" t="s">
+      <c r="N11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="55" t="s">
+      <c r="O11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="58" t="s">
+      <c r="R11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="58" t="s">
+      <c r="S11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="58" t="s">
+      <c r="T11" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="58" t="s">
+      <c r="U11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="58" t="s">
+      <c r="V11" s="60" t="s">
         <v>29</v>
       </c>
       <c r="W11" s="2"/>
@@ -2064,24 +2067,24 @@
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -2091,16 +2094,16 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="81" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="23" t="s">
@@ -2148,10 +2151,10 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="23" t="s">
         <v>40</v>
       </c>
@@ -2197,10 +2200,10 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="23" t="s">
         <v>40</v>
       </c>
@@ -2246,10 +2249,10 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="23" t="s">
         <v>40</v>
       </c>
@@ -2295,12 +2298,12 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="62" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="24" t="s">
         <v>35</v>
       </c>
@@ -2346,10 +2349,10 @@
       <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:29" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="50"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="24" t="s">
         <v>35</v>
       </c>
@@ -31726,26 +31729,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="R10:V10"/>
@@ -31762,6 +31745,26 @@
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="A13:A18"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="M13:M18">
@@ -31801,10 +31804,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="74"/>
+      <c r="B1" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="51"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -31845,10 +31848,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -31856,10 +31859,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="66">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -31889,10 +31892,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -31900,8 +31903,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -31929,10 +31932,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="56">
         <v>44807</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -31940,10 +31943,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="71">
+      <c r="L4" s="70">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -31973,10 +31976,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -31984,8 +31987,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="72"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -32070,80 +32073,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="51" t="s">
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="75"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="58" t="s">
+      <c r="U9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="58" t="s">
+      <c r="V9" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -32160,31 +32163,31 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>55</v>
@@ -32202,19 +32205,19 @@
         <v>66</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>36</v>
@@ -32231,15 +32234,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
@@ -32256,11 +32255,15 @@
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="M11">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PASS">
@@ -32347,10 +32350,10 @@
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -32391,10 +32394,10 @@
       <c r="A4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -32402,10 +32405,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="66">
         <v>31</v>
       </c>
       <c r="M4" s="10">
@@ -32435,10 +32438,10 @@
       <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="96"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -32446,8 +32449,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="68"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="11">
         <v>0</v>
       </c>
@@ -32475,10 +32478,10 @@
       <c r="A6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="89">
+      <c r="B6" s="83">
         <v>44807</v>
       </c>
-      <c r="C6" s="90"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -32486,10 +32489,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="70">
         <v>31</v>
       </c>
       <c r="M6" s="12">
@@ -32519,10 +32522,10 @@
       <c r="A7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -32530,8 +32533,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="72"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="32">
         <v>0</v>
       </c>
@@ -32616,80 +32619,80 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="51" t="s">
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="53"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="75"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="M11" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="55" t="s">
+      <c r="N11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="55" t="s">
+      <c r="O11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="58" t="s">
+      <c r="R11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="58" t="s">
+      <c r="S11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="58" t="s">
+      <c r="T11" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="58" t="s">
+      <c r="U11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="58" t="s">
+      <c r="V11" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -32706,36 +32709,36 @@
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
     </row>
     <row r="13" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="81" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -32776,10 +32779,10 @@
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="42" t="s">
         <v>40</v>
       </c>
@@ -32818,10 +32821,10 @@
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="42" t="s">
         <v>40</v>
       </c>
@@ -32860,10 +32863,10 @@
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="42" t="s">
         <v>40</v>
       </c>
@@ -32902,8 +32905,8 @@
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22" ht="132" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="25" t="s">
         <v>56</v>
       </c>
@@ -32946,8 +32949,8 @@
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="47" t="s">
         <v>82</v>
       </c>
@@ -32994,15 +32997,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="R10:V10"/>
@@ -33019,15 +33022,15 @@
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="M13:M18">
@@ -33046,7 +33049,7 @@
   </sheetPr>
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -33128,10 +33131,10 @@
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -33172,10 +33175,10 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -33183,10 +33186,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="66">
         <v>31</v>
       </c>
       <c r="M4" s="10">
@@ -33216,10 +33219,10 @@
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -33227,8 +33230,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="68"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="11">
         <v>0</v>
       </c>
@@ -33256,10 +33259,10 @@
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="56">
         <v>44807</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -33267,10 +33270,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="70">
         <v>31</v>
       </c>
       <c r="M6" s="12">
@@ -33300,10 +33303,10 @@
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -33311,8 +33314,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="72"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="32">
         <v>0</v>
       </c>
@@ -33397,80 +33400,80 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="51" t="s">
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="53"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="75"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="M11" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="55" t="s">
+      <c r="N11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="55" t="s">
+      <c r="O11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="58" t="s">
+      <c r="R11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="58" t="s">
+      <c r="S11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="58" t="s">
+      <c r="T11" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="58" t="s">
+      <c r="U11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="58" t="s">
+      <c r="V11" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -33487,30 +33490,30 @@
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-    </row>
-    <row r="13" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+    </row>
+    <row r="13" spans="1:22" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="95" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -33527,13 +33530,13 @@
         <v>66</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>70</v>
@@ -33554,9 +33557,9 @@
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
     </row>
-    <row r="14" spans="1:22" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="85"/>
+    <row r="14" spans="1:22" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="93"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="25" t="s">
         <v>82</v>
       </c>
@@ -33577,7 +33580,7 @@
         <v>46</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>81</v>
@@ -33600,12 +33603,15 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="R10:V10"/>
@@ -33622,16 +33628,13 @@
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="L11:L12"/>
     <mergeCell ref="R11:R12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="M13:M14">
@@ -33650,7 +33653,7 @@
   </sheetPr>
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -33670,10 +33673,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -33714,10 +33717,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -33725,10 +33728,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="66">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -33758,10 +33761,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -33769,8 +33772,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -33798,10 +33801,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="56">
         <v>44807</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -33809,10 +33812,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="71">
+      <c r="L4" s="70">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -33842,10 +33845,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -33853,8 +33856,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="72"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -33939,80 +33942,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="51" t="s">
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="75"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="58" t="s">
+      <c r="U9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="58" t="s">
+      <c r="V9" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -34029,30 +34032,30 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="72" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="97" t="s">
@@ -34099,8 +34102,8 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="98"/>
       <c r="D12" s="98"/>
       <c r="E12" s="42" t="s">
@@ -34142,15 +34145,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -34166,16 +34169,16 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:M12">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="PASS">
@@ -34193,7 +34196,7 @@
   </sheetPr>
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -34212,10 +34215,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -34256,10 +34259,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -34267,10 +34270,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="66">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -34300,10 +34303,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -34311,8 +34314,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -34340,10 +34343,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="56">
         <v>44807</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -34351,10 +34354,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="71">
+      <c r="L4" s="70">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -34384,10 +34387,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -34395,8 +34398,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="72"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -34481,80 +34484,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="51" t="s">
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="75"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="58" t="s">
+      <c r="U9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="58" t="s">
+      <c r="V9" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -34571,36 +34574,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="81" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -34641,10 +34644,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="42" t="s">
         <v>40</v>
       </c>
@@ -34684,15 +34687,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -34708,16 +34711,16 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:M12">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PASS">
@@ -34735,7 +34738,7 @@
   </sheetPr>
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -34754,10 +34757,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -34798,10 +34801,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -34809,10 +34812,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="66">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -34842,10 +34845,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -34853,8 +34856,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -34882,10 +34885,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="56">
         <v>44807</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -34893,10 +34896,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="71">
+      <c r="L4" s="70">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -34926,10 +34929,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -34937,8 +34940,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="72"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -35023,80 +35026,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="51" t="s">
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="75"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="58" t="s">
+      <c r="U9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="58" t="s">
+      <c r="V9" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -35113,36 +35116,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="81" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -35183,10 +35186,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="46" t="s">
         <v>35</v>
       </c>
@@ -35226,15 +35229,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -35250,16 +35253,16 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:M12">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="PASS">
@@ -35295,10 +35298,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -35339,10 +35342,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -35350,10 +35353,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="66">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -35383,10 +35386,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -35394,8 +35397,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -35423,10 +35426,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="56">
         <v>44807</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -35434,10 +35437,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="71">
+      <c r="L4" s="70">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -35467,10 +35470,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -35478,8 +35481,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="72"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -35564,80 +35567,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="51" t="s">
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="75"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="58" t="s">
+      <c r="U9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="58" t="s">
+      <c r="V9" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -35654,36 +35657,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="81" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -35702,7 +35705,7 @@
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>54</v>
@@ -35724,10 +35727,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="42" t="s">
         <v>40</v>
       </c>
@@ -35767,15 +35770,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -35789,18 +35792,18 @@
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="M12">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="PASS">
@@ -35823,8 +35826,8 @@
   </sheetPr>
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:V11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -35842,10 +35845,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="74"/>
+      <c r="B1" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="51"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -35886,10 +35889,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -35897,10 +35900,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="66">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -35930,10 +35933,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -35941,8 +35944,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -35970,10 +35973,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="56">
         <v>44807</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -35981,10 +35984,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="71">
+      <c r="L4" s="70">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -36014,10 +36017,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -36025,8 +36028,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="72"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -36111,80 +36114,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="51" t="s">
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="75"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="58" t="s">
+      <c r="U9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="58" t="s">
+      <c r="V9" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -36201,31 +36204,31 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>55</v>
@@ -36243,19 +36246,19 @@
         <v>66</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>36</v>
@@ -36272,15 +36275,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
@@ -36297,11 +36296,15 @@
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="M11">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="PASS">
@@ -36319,8 +36322,8 @@
   </sheetPr>
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36337,10 +36340,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="74"/>
+      <c r="B1" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="51"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -36381,10 +36384,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -36392,10 +36395,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="66">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -36425,10 +36428,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -36436,8 +36439,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -36465,10 +36468,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="56">
         <v>44807</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -36476,10 +36479,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="71">
+      <c r="L4" s="70">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -36509,10 +36512,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -36520,8 +36523,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="72"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -36606,80 +36609,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="51" t="s">
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="75"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="58" t="s">
+      <c r="U9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="58" t="s">
+      <c r="V9" s="60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -36696,36 +36699,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="81" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -36744,7 +36747,7 @@
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>54</v>
@@ -36766,10 +36769,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="42" t="s">
         <v>40</v>
       </c>
@@ -36780,13 +36783,13 @@
         <v>67</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K12" s="44" t="s">
         <v>123</v>
@@ -36809,15 +36812,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -36831,18 +36834,18 @@
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="M12">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASS">

--- a/TestCaseOrangeHRM.xlsx
+++ b/TestCaseOrangeHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOOTCAMP\QA\FINAL PROJECT\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF29C22-FA7D-4853-A2DA-C50EE832E9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED706FB-6E33-4B87-B69C-A75BFD87AC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_MENU_ADMIN" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="139">
   <si>
     <t>Function Name</t>
   </si>
@@ -516,15 +516,6 @@
 4). Pilih tab Employee Trackers
 5).  Input keyword pada input text  Employee Name 
 6). Click Search</t>
-  </si>
-  <si>
-    <t>View Detail Profil</t>
-  </si>
-  <si>
-    <t>1). Akses URL "https://opensource-demo.orangehrmlive.com/ "
-2). Login sesuai Username &amp; password hint.
-3). Click menu Directory
-4).Click pada person box</t>
   </si>
   <si>
     <t>Buzz Menu</t>
@@ -1097,6 +1088,75 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1127,73 +1187,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1220,24 +1229,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1248,15 +1239,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1645,10 +1628,10 @@
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1696,10 +1679,10 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1707,10 +1690,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="67">
         <v>31</v>
       </c>
       <c r="M4" s="10">
@@ -1747,10 +1730,10 @@
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1758,8 +1741,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="67"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="11">
         <v>0</v>
       </c>
@@ -1794,10 +1777,10 @@
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="79">
         <v>44807</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1805,10 +1788,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="71">
         <v>31</v>
       </c>
       <c r="M6" s="12">
@@ -1845,10 +1828,10 @@
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1856,8 +1839,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="71"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="32">
         <v>0</v>
       </c>
@@ -1963,20 +1946,20 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="73" t="s">
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1986,64 +1969,64 @@
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="N11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="62" t="s">
+      <c r="O11" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="62" t="s">
+      <c r="P11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="62" t="s">
+      <c r="Q11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="60" t="s">
+      <c r="R11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="60" t="s">
+      <c r="S11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="60" t="s">
+      <c r="T11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="60" t="s">
+      <c r="U11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="60" t="s">
+      <c r="V11" s="58" t="s">
         <v>29</v>
       </c>
       <c r="W11" s="2"/>
@@ -2067,24 +2050,24 @@
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -2094,16 +2077,16 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="23" t="s">
@@ -2151,10 +2134,10 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="23" t="s">
         <v>40</v>
       </c>
@@ -2200,10 +2183,10 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="23" t="s">
         <v>40</v>
       </c>
@@ -2249,10 +2232,10 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="23" t="s">
         <v>40</v>
       </c>
@@ -2298,12 +2281,12 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="80" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="72"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="24" t="s">
         <v>35</v>
       </c>
@@ -2349,10 +2332,10 @@
       <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:29" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="72"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="24" t="s">
         <v>35</v>
       </c>
@@ -31729,6 +31712,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="R10:V10"/>
@@ -31745,30 +31748,10 @@
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="M13:M18">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31804,10 +31787,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="51"/>
+      <c r="B1" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -31848,10 +31831,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -31859,10 +31842,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -31892,10 +31875,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -31903,8 +31886,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="67"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -31932,10 +31915,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -31943,10 +31926,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -31976,10 +31959,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -31987,8 +31970,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="71"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -32073,80 +32056,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="73" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="60" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="60" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="60" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -32163,31 +32146,31 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>55</v>
@@ -32211,7 +32194,7 @@
         <v>46</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>125</v>
@@ -32234,11 +32217,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
@@ -32255,15 +32242,11 @@
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <conditionalFormatting sqref="M11">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PASS">
@@ -32350,10 +32333,10 @@
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -32394,10 +32377,10 @@
       <c r="A4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -32405,10 +32388,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="67">
         <v>31</v>
       </c>
       <c r="M4" s="10">
@@ -32438,10 +32421,10 @@
       <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="90"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -32449,8 +32432,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="67"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="11">
         <v>0</v>
       </c>
@@ -32478,10 +32461,10 @@
       <c r="A6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="89">
         <v>44807</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -32489,10 +32472,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="71">
         <v>31</v>
       </c>
       <c r="M6" s="12">
@@ -32522,10 +32505,10 @@
       <c r="A7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -32533,8 +32516,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="71"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="32">
         <v>0</v>
       </c>
@@ -32619,80 +32602,80 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="73" t="s">
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="N11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="62" t="s">
+      <c r="O11" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="62" t="s">
+      <c r="P11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="62" t="s">
+      <c r="Q11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="60" t="s">
+      <c r="R11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="60" t="s">
+      <c r="S11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="60" t="s">
+      <c r="T11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="60" t="s">
+      <c r="U11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="60" t="s">
+      <c r="V11" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -32709,36 +32692,36 @@
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
     </row>
     <row r="13" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -32779,10 +32762,10 @@
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="42" t="s">
         <v>40</v>
       </c>
@@ -32821,10 +32804,10 @@
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="42" t="s">
         <v>40</v>
       </c>
@@ -32863,10 +32846,10 @@
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="42" t="s">
         <v>40</v>
       </c>
@@ -32905,8 +32888,8 @@
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22" ht="132" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="25" t="s">
         <v>56</v>
       </c>
@@ -32949,8 +32932,8 @@
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="47" t="s">
         <v>82</v>
       </c>
@@ -32997,15 +32980,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="R10:V10"/>
@@ -33022,19 +33005,19 @@
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="Q11:Q12"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="M13:M18">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33131,10 +33114,10 @@
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -33175,10 +33158,10 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -33186,10 +33169,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="67">
         <v>31</v>
       </c>
       <c r="M4" s="10">
@@ -33219,10 +33202,10 @@
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -33230,8 +33213,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="67"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="11">
         <v>0</v>
       </c>
@@ -33259,10 +33242,10 @@
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="79">
         <v>44807</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -33270,10 +33253,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="71">
         <v>31</v>
       </c>
       <c r="M6" s="12">
@@ -33303,10 +33286,10 @@
       <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -33314,8 +33297,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="71"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="32">
         <v>0</v>
       </c>
@@ -33400,80 +33383,80 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="73" t="s">
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="N11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="62" t="s">
+      <c r="O11" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="62" t="s">
+      <c r="P11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="62" t="s">
+      <c r="Q11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="60" t="s">
+      <c r="R11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="60" t="s">
+      <c r="S11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="60" t="s">
+      <c r="T11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="60" t="s">
+      <c r="U11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="60" t="s">
+      <c r="V11" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -33490,30 +33473,30 @@
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
     </row>
     <row r="13" spans="1:22" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="84" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -33530,13 +33513,13 @@
         <v>66</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>70</v>
@@ -33558,8 +33541,8 @@
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
-      <c r="B14" s="96"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="25" t="s">
         <v>82</v>
       </c>
@@ -33580,7 +33563,7 @@
         <v>46</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>81</v>
@@ -33603,15 +33586,13 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="R11:R12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="R10:V10"/>
@@ -33628,17 +33609,19 @@
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="M13:M14">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33673,10 +33656,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="51"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -33717,10 +33700,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -33728,10 +33711,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -33761,10 +33744,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -33772,8 +33755,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="67"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -33801,10 +33784,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -33812,10 +33795,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -33845,10 +33828,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -33856,8 +33839,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="71"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -33942,80 +33925,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="73" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="60" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="60" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="60" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -34032,30 +34015,30 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="50" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="97" t="s">
@@ -34102,8 +34085,8 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="98"/>
       <c r="D12" s="98"/>
       <c r="E12" s="42" t="s">
@@ -34145,15 +34128,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -34170,18 +34153,18 @@
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:M12">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34215,10 +34198,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="51"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -34259,10 +34242,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -34270,10 +34253,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -34303,10 +34286,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -34314,8 +34297,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="67"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -34343,10 +34326,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -34354,10 +34337,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -34387,10 +34370,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -34398,8 +34381,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="71"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -34484,80 +34467,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="73" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="60" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="60" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="60" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -34574,36 +34557,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -34644,10 +34627,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="42" t="s">
         <v>40</v>
       </c>
@@ -34687,15 +34670,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -34712,18 +34695,18 @@
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:M12">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34757,10 +34740,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="51"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -34801,10 +34784,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -34812,10 +34795,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -34845,10 +34828,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -34856,8 +34839,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="67"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -34885,10 +34868,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -34896,10 +34879,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -34929,10 +34912,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -34940,8 +34923,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="71"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -35026,80 +35009,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="73" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="60" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="60" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="60" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -35116,36 +35099,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -35186,10 +35169,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="46" t="s">
         <v>35</v>
       </c>
@@ -35229,15 +35212,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -35254,18 +35237,18 @@
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:M12">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35298,10 +35281,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="51"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -35342,10 +35325,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -35353,10 +35336,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -35386,10 +35369,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -35397,8 +35380,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="67"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -35426,10 +35409,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -35437,10 +35420,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -35470,10 +35453,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -35481,8 +35464,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="71"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -35567,80 +35550,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="73" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="60" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="60" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="60" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -35657,36 +35640,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="63" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -35727,10 +35710,10 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="42" t="s">
         <v>40</v>
       </c>
@@ -35770,15 +35753,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -35795,23 +35778,23 @@
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="M12">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35845,10 +35828,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="51"/>
+      <c r="B1" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -35889,10 +35872,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -35900,10 +35883,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -35933,10 +35916,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -35944,8 +35927,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="67"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -35973,10 +35956,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -35984,10 +35967,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -36017,10 +36000,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -36028,8 +36011,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="71"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -36114,80 +36097,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="73" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="60" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="60" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="60" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -36204,24 +36187,24 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
@@ -36275,11 +36258,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
@@ -36296,18 +36283,14 @@
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <conditionalFormatting sqref="M11">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36320,10 +36303,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="E12" sqref="E12:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36340,10 +36323,10 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="51"/>
+      <c r="B1" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -36384,10 +36367,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -36395,10 +36378,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="66">
+      <c r="L2" s="67">
         <v>31</v>
       </c>
       <c r="M2" s="10">
@@ -36428,10 +36411,10 @@
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -36439,8 +36422,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="67"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="11">
         <v>0</v>
       </c>
@@ -36468,10 +36451,10 @@
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="79">
         <v>44807</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -36479,10 +36462,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="71">
         <v>31</v>
       </c>
       <c r="M4" s="12">
@@ -36512,10 +36495,10 @@
       <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -36523,8 +36506,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="71"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="32">
         <v>0</v>
       </c>
@@ -36609,80 +36592,80 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="73" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="Q9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="60" t="s">
+      <c r="S9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="60" t="s">
+      <c r="T9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="60" t="s">
+      <c r="U9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -36699,36 +36682,36 @@
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="38" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -36768,59 +36751,17 @@
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
     </row>
-    <row r="12" spans="1:22" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+  <mergeCells count="30">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="A9:C9"/>
@@ -36837,21 +36778,12 @@
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
   </mergeCells>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(M12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M11">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(M11))))</formula>
